--- a/data/income_statement/1digit/total/G_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/G_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,521 +841,591 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>678094816.10551</v>
+        <v>678097331.0339099</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>807319550.8366699</v>
+        <v>824219425.0509899</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1060501238.02133</v>
+        <v>1061291971.37235</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1223781500.54508</v>
+        <v>1227133716.52039</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1352530213.59794</v>
+        <v>1360041361.67224</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1569071623.18009</v>
+        <v>1581230122.18997</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1712317693.21891</v>
+        <v>1773359450.62985</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1906912231.64795</v>
+        <v>1953089353.55609</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2492054929.21289</v>
+        <v>2492054929.212891</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3004980368.39945</v>
+        <v>3013935117.57463</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3445665280.36812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3497947423.37268</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4348948314.843</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>590458904.89347</v>
+        <v>590460553.6632199</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>704907470.9008299</v>
+        <v>720011675.2391599</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>917760055.5174899</v>
+        <v>918542539.05709</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1047941638.68317</v>
+        <v>1050062131.95403</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1170999739.27231</v>
+        <v>1178062018.43364</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1351925649.43524</v>
+        <v>1362681966.11923</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1474106199.58442</v>
+        <v>1528493689.67101</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1652436850.97962</v>
+        <v>1692946128.00867</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2135349293.12193</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2519318227.84488</v>
+        <v>2526773494.26706</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2856408798.96425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2903650422.000329</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3672297541.329</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>73695241.67767002</v>
+        <v>73696106.79332003</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>85187543.90595001</v>
+        <v>86961946.06496999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>123190306.33572</v>
+        <v>123196456.28352</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>154241694.17868</v>
+        <v>155453852.92269</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>157812128.98617</v>
+        <v>158061438.62532</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>189693346.88375</v>
+        <v>190513908.49446</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>205746761.10154</v>
+        <v>211469334.9771</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>218476711.70354</v>
+        <v>223350149.43687</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>314441198.7426</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>434854739.6989999</v>
+        <v>436322585.1028199</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>530888748.69523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>535440894.69721</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>607336019.6799999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>13940669.53437</v>
+        <v>13940670.57737</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17224536.02989</v>
+        <v>17245803.74686</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19550876.16812</v>
+        <v>19552976.03174</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>21598167.68322999</v>
+        <v>21617731.64367</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>23718345.33946</v>
+        <v>23917904.61328</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>27452626.8611</v>
+        <v>28034247.57628</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>32464732.53295001</v>
+        <v>33396425.98174</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>35998668.96479</v>
+        <v>36793076.11055</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>42264437.34835999</v>
+        <v>42264437.34836001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>50807400.85557</v>
+        <v>50839038.20475001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>58367732.70864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>58856106.67514</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>69314753.83400001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>30977379.60529</v>
+        <v>30977383.64528999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>30216975.10992001</v>
+        <v>30827904.19648</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>38913164.44494001</v>
+        <v>39013461.43494</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>44710359.36746</v>
+        <v>44940207.21691999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>51653657.04934</v>
+        <v>51949709.31552</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>62022869.33280001</v>
+        <v>62400101.71608</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>67512726.27476999</v>
+        <v>69398057.74869999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>80906770.36127001</v>
+        <v>83492697.63784999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>112702248.46307</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>114775056.94517</v>
+        <v>114823175.76927</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>156453501.98404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>157201420.78748</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>173278021.618</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12610559.53076</v>
+        <v>12610563.57076</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9050150.467050001</v>
+        <v>9058948.43818</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>11504273.44603</v>
+        <v>11508299.56684</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>13791477.02336</v>
+        <v>13810769.3906</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>15566644.64406</v>
+        <v>15622825.38193</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>21893653.24176</v>
+        <v>22102080.44369</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>21365434.67569001</v>
+        <v>21925529.05904</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>31368986.36769</v>
+        <v>32050350.62411</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>50246419.34077</v>
+        <v>50246419.34077001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>41124779.45811</v>
+        <v>41157998.74351001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>66029017.44807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>66612443.28089</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>67621019.44400001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>16358177.36865</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>18681320.46866</v>
+        <v>19079147.06437</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>24059028.73622</v>
+        <v>24155274.92066</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>27299732.10179</v>
+        <v>27466262.54146</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>31901186.13917</v>
+        <v>32137085.3652</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>34172236.6904</v>
+        <v>34327458.04027999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>38367116.17049</v>
+        <v>39593878.87317</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>41684593.41569</v>
+        <v>43439754.30548999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>52683145.86266</v>
+        <v>52683145.86266001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>60447577.91871</v>
+        <v>60452190.47281001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>76316124.74437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>76398109.40427001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>88359637.502</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2008642.70588</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2485504.174209999</v>
+        <v>2689808.693930001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3349862.26269</v>
+        <v>3349886.94744</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3619150.24231</v>
+        <v>3663175.28486</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4185826.266109999</v>
+        <v>4189798.568389999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5956979.40064</v>
+        <v>5970563.23211</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7780175.428590001</v>
+        <v>7878649.81649</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>7853190.577889998</v>
+        <v>8002592.708249999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>9772683.259640001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>13202699.56835</v>
+        <v>13212986.55295</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14108359.7916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14190868.10232</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>17297364.672</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>647117436.5002199</v>
+        <v>647119947.3886201</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>777102575.7267499</v>
+        <v>793391520.8545102</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1021588073.57639</v>
+        <v>1022278509.93741</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1179071141.17762</v>
+        <v>1182193509.30347</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1300876556.5486</v>
+        <v>1308091652.35672</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1507048753.84729</v>
+        <v>1518830020.47389</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1644804966.94414</v>
+        <v>1703961392.88115</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1826005461.28668</v>
+        <v>1869596655.91824</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2379352680.74982</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2890205311.45428</v>
+        <v>2899111941.80536</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3289211778.38408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3340746002.5852</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4175670293.225</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>568352656.7609801</v>
+        <v>568354924.4462299</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>686154173.0801802</v>
+        <v>701364381.19761</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>907520987.5281</v>
+        <v>908111974.2252001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1052922987.13129</v>
+        <v>1055799342.90941</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1155380117.98226</v>
+        <v>1161784922.36873</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1340976275.12112</v>
+        <v>1350763351.74316</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1455794514.55167</v>
+        <v>1509169250.68624</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1613437955.46557</v>
+        <v>1649332159.40057</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2110076414.5946</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2561238686.315391</v>
+        <v>2569901895.1402</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2918516524.229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2966589256.44859</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3735218509.248</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>31303330.14577</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>43663504.11608</v>
+        <v>43868970.0243</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>48739607.21094999</v>
+        <v>48753546.83234</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>63400174.1036</v>
+        <v>63447716.78783002</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>60448368.06589</v>
+        <v>61249928.60522001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>69956928.64466001</v>
+        <v>70303133.42145999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>73034396.37689</v>
+        <v>74641447.65607001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>84490772.27349</v>
+        <v>87590214.08877</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>126478691.01872</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>128031405.58598</v>
+        <v>128303325.16628</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>163038820.33227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>165195118.92137</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>219618375.492</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>525041878.1045301</v>
+        <v>525044145.78978</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>628577382.6346399</v>
+        <v>643581851.8392099</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>840126878.1456599</v>
+        <v>840702015.63301</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>969510979.0641102</v>
+        <v>971259395.96065</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1072251877.34395</v>
+        <v>1077681526.76649</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1245840053.76712</v>
+        <v>1255089483.9056</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1355231834.23744</v>
+        <v>1405918985.09403</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1494756398.919981</v>
+        <v>1526845839.88854</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1932237432.39158</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2380390962.36421</v>
+        <v>2388428758.00916</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2693033314.93951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2738276047.519289</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3425117461.36</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>10964850.26823</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>12622156.50008</v>
+        <v>12622429.50472</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>16428090.89599</v>
+        <v>16429924.19505</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>17881864.88756</v>
+        <v>18959976.2654</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19605811.27732</v>
+        <v>19771124.22518</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>22220479.42993</v>
+        <v>22356762.79023</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>23655999.23824999</v>
+        <v>24628651.32749</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>30241327.32979</v>
+        <v>30419853.33873</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>43721558.25228</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>44667980.05061</v>
+        <v>45006097.21967</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>53307295.95305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>53951771.71837</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>80881808.683</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1042598.24245</v>
@@ -1463,121 +1434,136 @@
         <v>1291129.82938</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2226411.2755</v>
+        <v>2226487.5648</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2129969.07602</v>
+        <v>2132253.89553</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3074061.2951</v>
+        <v>3082342.77184</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2958813.27941</v>
+        <v>3013971.62587</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3872284.69909</v>
+        <v>3980166.60865</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3949456.94231</v>
+        <v>4476252.08453</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7638732.93202</v>
+        <v>7638732.932020001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>8148338.314590001</v>
+        <v>8163714.745089998</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9137093.004169999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9166318.289560001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9600863.713</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>78764779.73924001</v>
+        <v>78765022.94238999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>90948402.64657001</v>
+        <v>92027139.65689999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>114067086.04829</v>
+        <v>114166535.71221</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>126148154.04633</v>
+        <v>126394166.39406</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>145496438.56634</v>
+        <v>146306729.98799</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>166072478.72617</v>
+        <v>168066668.73073</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>189010452.39247</v>
+        <v>194792142.19491</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>212567505.82111</v>
+        <v>220264496.51767</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>269276266.15522</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>328966625.13889</v>
+        <v>329210046.66516</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>370695254.1550801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>374156746.13661</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>440451783.977</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>61906635.03875</v>
+        <v>61906807.31067999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>71390910.28221001</v>
+        <v>71956887.79706001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>87266287.94046001</v>
+        <v>87368835.21432</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>100630711.94245</v>
+        <v>100844687.31804</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>113799715.74969</v>
+        <v>114642108.81414</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>130568299.89148</v>
+        <v>132581412.62573</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>146153160.50848</v>
+        <v>151244206.80817</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>164593129.76606</v>
+        <v>170401188.18404</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>198457966.60617</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>238182178.31362</v>
+        <v>238832993.00338</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>277338875.8326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>280148355.58117</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>311438075.998</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>210020.96655</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>184201.37222</v>
+        <v>184201.3722199999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>245729.50945</v>
@@ -1586,460 +1572,520 @@
         <v>283223.2375</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>319283.8479900001</v>
+        <v>319283.8479899999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>357322.71192</v>
+        <v>359435.28987</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>366670.6372</v>
+        <v>383780.1428499999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>428646.78729</v>
+        <v>441262.9763099999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>555520.52763</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>710644.92946</v>
+        <v>712750.7944000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1095480.14971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1055535.996</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1222584.592</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>33326659.61481</v>
+        <v>33326669.78836</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>39297918.34306999</v>
+        <v>39756925.97863999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>48768239.96662999</v>
+        <v>48851195.98878</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>57315497.98157</v>
+        <v>57437032.20112001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>65470550.64378001</v>
+        <v>65802877.23339999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>76179389.7439</v>
+        <v>76986092.46787</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>85729932.76440001</v>
+        <v>88572074.18688001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>95862315.73227</v>
+        <v>99380266.45098001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>118415109.55021</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>144070403.06205</v>
+        <v>144194589.32413</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>168168914.73174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>169333614.77701</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>189678839.66</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>28369954.45739</v>
+        <v>28370116.55577</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>31908790.56692</v>
+        <v>32015760.4462</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>38252318.46438</v>
+        <v>38271909.71608999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>43031990.72338</v>
+        <v>43124431.87942</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>48009881.25792</v>
+        <v>48519947.73275001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>54031587.43566</v>
+        <v>55235884.86799</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>60056557.10688</v>
+        <v>62288352.47844</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>68302167.24649999</v>
+        <v>70579658.75675</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>79487336.52833</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>93401130.32211</v>
+        <v>93925652.88485</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>108074480.95115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>109759204.80816</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>120536651.746</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>16858144.70049</v>
+        <v>16858215.63171</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>19557492.36436</v>
+        <v>20070251.85984001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>26800798.10783</v>
+        <v>26797700.49789</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>25517442.10388</v>
+        <v>25549479.07602</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>31696722.81665</v>
+        <v>31664621.17385</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>35504178.83469</v>
+        <v>35485256.105</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>42857291.88399</v>
+        <v>43547935.38674</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>47974376.05505</v>
+        <v>49863308.33363</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>70818299.54904999</v>
+        <v>70818299.54904997</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>90784446.82527</v>
+        <v>90377053.66178</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>93356378.32247999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>94008390.55544001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>129013707.979</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>27044878.92912</v>
+        <v>27044870.50293</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>20797986.99357</v>
+        <v>22618482.82523</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>27763456.7931</v>
+        <v>27766161.1028</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>26238092.85084999</v>
+        <v>26266967.90377</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>37754888.26918</v>
+        <v>37905367.80296001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>42157605.61079001</v>
+        <v>42563839.04355</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>61555902.94774</v>
+        <v>63951669.5003</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>70087014.44008</v>
+        <v>73420586.53424001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>258426514.4172</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>198528778.24813</v>
+        <v>199539033.303</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>135036552.87579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>135975296.74974</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>206119417.993</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>629679.02271</v>
+        <v>629679.0227099999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>800662.3077799999</v>
+        <v>800662.3077800001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>895973.2123800002</v>
+        <v>895979.13303</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>939061.0373100002</v>
+        <v>939066.7944799999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1191232.99273</v>
+        <v>1200728.74322</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1143999.73193</v>
+        <v>1159102.58204</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1004008.4883</v>
+        <v>1035637.6845</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1359156.12</v>
+        <v>1459161.5904</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3015576.825480001</v>
+        <v>3015576.82548</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2442062.59934</v>
+        <v>2497648.2363</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2673507.62498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2736761.46629</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1650624.94</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2957639.56083</v>
+        <v>2957639.560829999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>546398.2708099998</v>
+        <v>552810.43904</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>640858.98542</v>
+        <v>640858.9854199999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>1122699.27143</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>995676.8224200002</v>
+        <v>995678.13242</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>935349.4647599999</v>
+        <v>935349.46476</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1167157.36904</v>
+        <v>1198502.62678</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1462987.74234</v>
+        <v>1585190.50615</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1363154.30593</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2368433.22691</v>
+        <v>2400810.6967</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1713855.90448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1720425.83699</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2400000.895</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1476806.39318</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1376814.1213</v>
+        <v>1412770.13931</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1616465.20321</v>
+        <v>1616668.89256</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1892464.88328</v>
+        <v>1893774.33379</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1959978.2826</v>
+        <v>1971433.45462</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2544649.69587</v>
+        <v>2560523.21291</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3019353.91489</v>
+        <v>3167138.64409</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3345931.05374</v>
+        <v>3556797.06641</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4897323.412370001</v>
+        <v>4897323.41237</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8421104.088639999</v>
+        <v>8458635.670810001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10476955.0735</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10672047.98615</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9862155.622</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>583293.00599</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>414839.1368200001</v>
+        <v>415741.6200000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>516828.05881</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>539294.7496499999</v>
+        <v>540179.03986</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>616254.1113700001</v>
+        <v>617144.2871800001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>625194.8993</v>
+        <v>626110.8369100001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>699515.8269</v>
+        <v>702048.8123799999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>777451.2080000002</v>
+        <v>821260.2677199999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>874746.1283900001</v>
+        <v>874746.1283899999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1292303.48317</v>
+        <v>1300932.59735</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1308661.8275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1321902.11043</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1397776.12</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>544132.5530200001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>526437.02584</v>
+        <v>531306.86498</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>665824.58798</v>
+        <v>666569.66444</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>621616.1556599999</v>
+        <v>623240.76848</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>714266.72726</v>
+        <v>719506.7466599999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>647255.7490100001</v>
+        <v>655105.0206300002</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>961629.63565</v>
+        <v>976060.8730100001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>911671.4984699998</v>
+        <v>949636.1494100001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1054439.75206</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1674954.84074</v>
+        <v>1682355.19456</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1702279.16765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1711121.29911</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2007512.565</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>169621.78234</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>477306.4409399999</v>
+        <v>477310.69764</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>524476.90224</v>
+        <v>524540.3812800001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>539943.0925</v>
+        <v>540350.6033300001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>423922.15133</v>
+        <v>425041.8484399999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>782037.0683600002</v>
+        <v>782687.7066799999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>555740.36813</v>
+        <v>682983.2573300002</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>503449.99593</v>
+        <v>532802.33745</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>585962.4582800001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1452397.11435</v>
+        <v>1457637.68654</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1426065.57554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1430662.45566</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1810083.28</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>15779267.21527</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12101490.41522</v>
+        <v>12703557.87541</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>15646983.31815</v>
+        <v>15648058.00569</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>12118597.03847</v>
+        <v>12128457.43729</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>21673567.40232</v>
+        <v>21719205.17196</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>24380491.82982</v>
+        <v>24517256.94737</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>41308049.47028999</v>
+        <v>42830878.5833</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>47835075.37213999</v>
+        <v>50142436.48158001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>229918670.1074199</v>
+        <v>229918670.10742</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>158408162.97846</v>
+        <v>159154248.31754</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>89976464.2515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>90463008.56925002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>161492252.99</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>192275.74983</v>
@@ -2048,310 +2094,350 @@
         <v>166035.5994</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>197687.91286</v>
+        <v>197852.06486</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>220886.98437</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>491440.77535</v>
+        <v>492180.8711899999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>792905.2526699998</v>
+        <v>798873.79853</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>831421.9610300001</v>
+        <v>840819.4497699999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>929982.0888499999</v>
+        <v>1042574.28731</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>902163.59297</v>
+        <v>902163.5929700001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1770642.03448</v>
+        <v>1770665.08148</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2615699.09151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2616056.05585</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1819612.599</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>52413.50012</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>53424.95734</v>
+        <v>53570.83781999999</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>66273.72096000001</v>
+        <v>66349.73786000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>39241.21065</v>
+        <v>39246.5226</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>56224.87410999999</v>
+        <v>56628.25616</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>74958.58991000001</v>
+        <v>77134.8033</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>88517.07154999999</v>
+        <v>89387.36748</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>114760.2369</v>
+        <v>115204.43771</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>347682.2233</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>483584.48063</v>
+        <v>487575.76329</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>284449.84175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>287376.4689</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>551127.372</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4659750.145830001</v>
+        <v>4659741.719640001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4334578.71812</v>
+        <v>5504716.44385</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6992084.891090001</v>
+        <v>6992456.178850001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8204288.427530001</v>
+        <v>8219066.148139998</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>9632324.129689999</v>
+        <v>9707820.291110003</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>10230763.32916</v>
+        <v>10451694.67042</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>11920508.84196</v>
+        <v>12428212.20166</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>12846549.12371</v>
+        <v>13215523.4101</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>15466795.611</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>20215133.40141</v>
+        <v>20328524.05843</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>22858614.51738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>23015934.50111001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>23128271.61</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>20115041.21334999</v>
+        <v>20115043.3666</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>15338614.04762</v>
+        <v>17219216.16422001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>24354146.05494</v>
+        <v>24357192.54895</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>17663748.18021</v>
+        <v>17677437.69712</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>34329289.89799</v>
+        <v>34416059.26598</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>35070874.94217999</v>
+        <v>35273500.99988999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>56442809.99996</v>
+        <v>58546082.70967</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>64259902.10946</v>
+        <v>67036566.60277</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>248143441.2697901</v>
+        <v>248143441.26979</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>190980483.57641</v>
+        <v>191758315.96408</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>115268745.546</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>115843094.88824</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>188611335.088</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>422576.88962</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>441483.70355</v>
+        <v>443277.73276</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>553608.4228600002</v>
+        <v>553720.0701799999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>645232.61527</v>
+        <v>645427.57678</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>678487.5593599998</v>
+        <v>680202.2016</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>771757.14971</v>
+        <v>774133.0846499999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>769934.0163900001</v>
+        <v>777114.1056299999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>874783.4955099999</v>
+        <v>992368.7268599999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1356801.62815</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1537396.92517</v>
+        <v>1538745.41113</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1929285.44889</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1936326.0342</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2310956.404</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1545061.10718</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1128731.47198</v>
+        <v>1139751.74036</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1282771.54555</v>
+        <v>1283393.83741</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1849625.0092</v>
+        <v>1855732.85516</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2155679.21984</v>
+        <v>2178401.18481</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2136250.22513</v>
+        <v>2150388.34697</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2961438.76033</v>
+        <v>3026050.65065</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3539006.0237</v>
+        <v>3628665.62984</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>3228995.23442</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5566810.47542</v>
+        <v>5574061.785929999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4789229.81582</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4812318.676639999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4138226.634</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>106410.31642</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>76263.43816999999</v>
+        <v>76263.43817000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>339791.24151</v>
+        <v>339791.26514</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>178308.22428</v>
+        <v>178342.53053</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>238061.62439</v>
+        <v>239255.64014</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>664368.0857299999</v>
+        <v>676602.48778</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>383317.08811</v>
+        <v>403316.7272600001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>378957.2575</v>
+        <v>379208.86834</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>252698.37676</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>676063.8428199999</v>
+        <v>676100.5672899999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>419159.69189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>419580.28214</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>934298.767</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>15457380.06118</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11775708.24355</v>
+        <v>12433219.65961</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>17879860.62079</v>
+        <v>17882066.00389</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10195110.00171</v>
+        <v>10200740.39408</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>25112986.54932999</v>
+        <v>25168919.05976</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>24777781.95543</v>
+        <v>24925294.12913</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>44773960.92937999</v>
+        <v>46664179.24451999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>51622899.06588001</v>
+        <v>53941532.80236</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>233701808.43371</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>168687548.78508</v>
+        <v>169440724.24741</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>92366571.07700999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>92869170.15037002</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>162153923.389</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>155747.29783</v>
@@ -2363,34 +2449,39 @@
         <v>200665.38456</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>217477.84418</v>
+        <v>217641.99618</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>529223.0597999999</v>
+        <v>530201.77435</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>833890.23279</v>
+        <v>840109.0607100001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>874803.97479</v>
+        <v>888210.1802899999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>955130.5519700001</v>
+        <v>1067759.3096</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1025288.8963</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1982094.85155</v>
+        <v>1982099.28855</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2427638.02988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2428186.37344</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2016736.236</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>23307.06418</v>
@@ -2399,619 +2490,697 @@
         <v>29361.38838</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>50743.77382</v>
+        <v>50746.72247</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>20600.28964</v>
+        <v>20600.28972</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>38200.29811</v>
+        <v>38253.24156</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>49350.90601</v>
+        <v>49988.61362999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>71051.15253000001</v>
+        <v>72403.37365999998</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>73985.66494</v>
+        <v>73966.46349000001</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>127493.76355</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>527583.08783</v>
+        <v>530388.41287</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>227031.7528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>228853.19222</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>392916.002</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2404558.47694</v>
+        <v>2404560.630189999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1722008.03909</v>
+        <v>2932284.44204</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4046705.065849999</v>
+        <v>4046809.265300001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4557394.195929999</v>
+        <v>4558952.05467</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5576651.587160001</v>
+        <v>5580826.163759999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5837476.38738</v>
+        <v>5856985.277020001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6608304.07843</v>
+        <v>6714808.42766</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6815140.049960002</v>
+        <v>6953064.802279999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8450354.936899999</v>
+        <v>8450354.936900001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>12002985.60854</v>
+        <v>12016196.2509</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>13109829.72971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13148660.17923</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>16664277.656</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>9243977.818159999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>7529538.45313</v>
+        <v>7790720.11391</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>13534915.45809</v>
+        <v>13537632.73117</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>13691597.44885</v>
+        <v>13709621.38761</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>16331784.24609</v>
+        <v>16480141.87405</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>18606798.53486</v>
+        <v>18796450.78773</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>24784929.67502</v>
+        <v>25440245.97236</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>28396247.19436</v>
+        <v>29069033.50318</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>35845207.51059999</v>
+        <v>35845207.51060001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>60017484.64151</v>
+        <v>60084288.97184</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>58116345.51375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>58577763.78587</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>55571006.321</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>8265043.447179999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6673081.50632</v>
+        <v>6920919.373780001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>11161909.77341</v>
+        <v>11164627.04649</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>12673008.95306</v>
+        <v>12683169.60009</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>14354250.11528</v>
+        <v>14462355.25116</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>17261580.9967</v>
+        <v>17415512.86542</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22302196.12342</v>
+        <v>22863253.03931</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>25636278.60111</v>
+        <v>26273465.89423</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>32126296.39647</v>
+        <v>32126296.39647001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>53181901.57056001</v>
+        <v>53247148.47370999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>52640064.59442001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>53088166.34367</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>49673847.554</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>978934.37098</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>856456.94681</v>
+        <v>869800.7401300002</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>2373005.68468</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1018588.49579</v>
+        <v>1026451.78752</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1977534.13081</v>
+        <v>2017786.62289</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1345217.53816</v>
+        <v>1380937.922310001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2482733.551600001</v>
+        <v>2576992.93305</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2759968.593249999</v>
+        <v>2795567.60895</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3718911.114129999</v>
+        <v>3718911.11413</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6835583.07095</v>
+        <v>6837140.498129999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5476280.919330001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5489597.442199999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5897158.767</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>14544004.5981</v>
+        <v>14544064.94988</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>17487326.85718</v>
+        <v>17678798.40694</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>16675193.3879</v>
+        <v>16669036.32057</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>20400189.32567</v>
+        <v>20429387.89506</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>18790536.94175</v>
+        <v>18673787.83678</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>23984110.96844</v>
+        <v>23979143.36093</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>23185455.15675</v>
+        <v>23513276.20501</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>25405241.19130999</v>
+        <v>27178294.76192</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>45256165.18585999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>38315256.85547999</v>
+        <v>38073482.02886</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>55007840.13851999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>55562828.63107</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>90950784.56299999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2448853.39748</v>
+        <v>2448854.13497</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3071014.65734</v>
+        <v>3131854.30646</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4666221.69011</v>
+        <v>4667135.749349999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3999138.50891</v>
+        <v>4008542.237389999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5281704.15165</v>
+        <v>5337899.142519999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6340442.14985</v>
+        <v>6560778.630340001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7556487.33858</v>
+        <v>7976414.80315</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8687051.739839999</v>
+        <v>9118734.312430002</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9673470.477810001</v>
+        <v>9673470.477809999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>13111547.79191</v>
+        <v>13192980.98784</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>12646525.43744</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>12910904.62046</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>16774039.258</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>105015.34974</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>75003.57603</v>
+        <v>75344.18882</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>170880.44333</v>
+        <v>171025.33273</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>133597.64345</v>
+        <v>133920.79643</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>183393.59081</v>
+        <v>185303.29197</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>205078.52479</v>
+        <v>206837.65642</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>169682.69317</v>
+        <v>173075.57812</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>395671.4958</v>
+        <v>407653.6211700001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>308311.2701</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>219592.35277</v>
+        <v>223125.4766</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>329502.7860899999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>347025.0739199999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>282187.049</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2343838.04774</v>
+        <v>2343838.78523</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2996011.08131</v>
+        <v>3056510.11764</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4495341.24678</v>
+        <v>4496110.416620001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3865540.86546</v>
+        <v>3874621.44096</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5098310.56084</v>
+        <v>5152595.85055</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6135363.62506</v>
+        <v>6353940.97392</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7386804.645410002</v>
+        <v>7803339.225029998</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8291380.244039999</v>
+        <v>8711080.691260003</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9365159.20771</v>
+        <v>9365159.207710002</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12891955.43914</v>
+        <v>12969855.51124</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>12317022.65135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>12563879.54654</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>16491852.209</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2137698.75968</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2743091.59778</v>
+        <v>2799791.05129</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11363739.05226</v>
+        <v>11364672.93261</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3332061.04651</v>
+        <v>3337331.144129999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3959513.3639</v>
+        <v>3990356.41452</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7035165.614659999</v>
+        <v>7253604.657059999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4936332.39376</v>
+        <v>5161772.0007</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>11504859.46005</v>
+        <v>11842319.84666</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>6920829.14099</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>14998203.44079</v>
+        <v>15224929.69243</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10875539.59277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>11057521.44485</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13830329.292</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>133018.86574</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>147047.7949</v>
+        <v>147208.01144</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>122748.19647</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>138025.17925</v>
+        <v>138102.43686</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>118316.88531</v>
+        <v>118414.68686</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>168122.15165</v>
+        <v>168785.3326</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>116451.46753</v>
+        <v>125596.66826</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>138142.11739</v>
+        <v>145545.20506</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>183800.0529799999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>173939.08714</v>
+        <v>182466.73733</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>261741.71746</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>265060.38742</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>182433.904</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>196076.40485</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>284010.71741</v>
+        <v>288971.68538</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>410407.52446</v>
+        <v>410568.6497900001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>255618.38313</v>
+        <v>256268.65337</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>285858.43867</v>
+        <v>295963.2768100001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>365384.0612499999</v>
+        <v>374079.99206</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>399628.13527</v>
+        <v>414496.50933</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>556145.6715000001</v>
+        <v>572541.6767700001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>509999.86004</v>
+        <v>509999.8600399999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>643997.2911899999</v>
+        <v>648723.4616</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>634243.24823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>641621.7344700003</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>604784.1850000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1808603.48909</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2312033.08547</v>
+        <v>2363611.35447</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10830583.33133</v>
+        <v>10831356.08635</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2938417.48413</v>
+        <v>2942960.053900001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3555338.03992</v>
+        <v>3575978.450850001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6501659.40176</v>
+        <v>6710739.332400001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4420252.790960001</v>
+        <v>4621678.823109998</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>10810571.67116</v>
+        <v>11124232.96483</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>6227029.227969999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>14180267.06246</v>
+        <v>14393739.4935</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9979554.627079999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10150839.32296</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13043111.203</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>14855159.2359</v>
+        <v>14855220.32517</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>17815249.91674</v>
+        <v>18010861.66211</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>9977676.025749998</v>
+        <v>9971499.13731</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>21067266.78807</v>
+        <v>21100598.98832</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>20112727.7295</v>
+        <v>20021330.56478</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>23289387.50363</v>
+        <v>23286317.33421</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>25805610.10157</v>
+        <v>26327919.00746</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>22587433.4711</v>
+        <v>24454709.22769</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>48008806.52268</v>
+        <v>48008806.52268001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>36428601.2066</v>
+        <v>36041533.32427</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>56778825.98319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>57416211.80668</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>93894494.529</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2866382.18668</v>
+        <v>2866390.82374</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3582705.51234</v>
+        <v>3625684.42888</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4342873.10173</v>
+        <v>4343640.982890001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4566642.17136</v>
+        <v>4570923.94125</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5163553.632309999</v>
+        <v>5181048.038170001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5687692.543810001</v>
+        <v>5718190.33995</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6763499.644790001</v>
+        <v>6927007.94877</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>7075684.190260001</v>
+        <v>7450299.16334</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>10088915.34491</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13049213.90888</v>
+        <v>13102356.57008</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14683837.11487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>14887520.53755</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>22626047.248</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>11988777.04922</v>
+        <v>11988829.50143</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>14232544.4044</v>
+        <v>14385177.23323</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>5634802.924020001</v>
+        <v>5627858.15442</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>16500624.61671</v>
+        <v>16529675.04707</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>14949174.09719</v>
+        <v>14840282.52661</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>17601694.95982</v>
+        <v>17568126.99426</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>19042110.45678</v>
+        <v>19400911.05869</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>15511749.28084</v>
+        <v>17004410.06435</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>37919891.17777</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>23379387.29772</v>
+        <v>22939176.75419</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>42094988.86832</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>42528691.26913</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>71268447.281</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>215162</v>
+        <v>215166</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>219183</v>
+        <v>219199</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>222408</v>
+        <v>222468</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>218094</v>
+        <v>218327</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>214603</v>
+        <v>215209</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>214858</v>
+        <v>215850</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>217063</v>
+        <v>219372</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>222440</v>
+        <v>224208</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>234422</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>220863</v>
+        <v>247332</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>225790</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>261101</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>280776</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>